--- a/Testmethoden/Heuristik Walkthrough/Walkthrough Johannes.xlsx
+++ b/Testmethoden/Heuristik Walkthrough/Walkthrough Johannes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
   <si>
     <t xml:space="preserve">Szenario </t>
   </si>
@@ -69,6 +69,15 @@
   </si>
   <si>
     <t xml:space="preserve">Ist nicht machbar. Keine Information über Ausstatung von CIP Pools. Man müsste alle Pools einzeln durchg gehen </t>
+  </si>
+  <si>
+    <t>Sonstige Probleme</t>
+  </si>
+  <si>
+    <t>rechte Spalte hinzufügen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">windows 8.1 bei software obwohl eigene sprte mit betriebssystemen ? </t>
   </si>
 </sst>
 </file>
@@ -490,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E18"/>
+  <dimension ref="B3:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -705,6 +714,28 @@
         <v>0</v>
       </c>
     </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="16">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
